--- a/Code/Results/Cases/Case_8_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.00035611461459</v>
+        <v>0.9922176993628398</v>
       </c>
       <c r="C2">
-        <v>0.2329109183345821</v>
+        <v>0.2602378989607104</v>
       </c>
       <c r="D2">
-        <v>0.0701780393098872</v>
+        <v>0.07170213767659561</v>
       </c>
       <c r="E2">
-        <v>1.28477074508551</v>
+        <v>1.29417105037507</v>
       </c>
       <c r="F2">
-        <v>0.5250021413811865</v>
+        <v>0.472964019278912</v>
       </c>
       <c r="G2">
-        <v>0.0008096103950448309</v>
+        <v>0.004363044067721616</v>
       </c>
       <c r="H2">
-        <v>0.004156997882406643</v>
+        <v>0.005020637230208846</v>
       </c>
       <c r="I2">
-        <v>0.0005494506051029191</v>
+        <v>0.0005720843718854951</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3180745208661051</v>
+        <v>0.2724152584726625</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1475433346705977</v>
       </c>
       <c r="M2">
-        <v>1.17446572598098</v>
+        <v>0.06643219694620583</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.209878362544885</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.5889216947958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.398994174106292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8724579451219086</v>
+        <v>0.8688995627154554</v>
       </c>
       <c r="C3">
-        <v>0.2061974389006309</v>
+        <v>0.2274878247800274</v>
       </c>
       <c r="D3">
-        <v>0.06351640244225365</v>
+        <v>0.06383510400241477</v>
       </c>
       <c r="E3">
-        <v>1.117598916748776</v>
+        <v>1.12751288304338</v>
       </c>
       <c r="F3">
-        <v>0.4981192886863255</v>
+        <v>0.4492478696219919</v>
       </c>
       <c r="G3">
-        <v>0.0008125270622694951</v>
+        <v>0.006307575970399715</v>
       </c>
       <c r="H3">
-        <v>0.002437925063401014</v>
+        <v>0.003208104247456323</v>
       </c>
       <c r="I3">
-        <v>0.0009338525848363588</v>
+        <v>0.0005218797569930267</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3187848067119639</v>
+        <v>0.2745320531489064</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1522672570662351</v>
       </c>
       <c r="M3">
-        <v>1.026906895430841</v>
+        <v>0.06460025457799112</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.058106430440887</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.543076564027828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.360651831712161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7936830909436594</v>
+        <v>0.7928151877109997</v>
       </c>
       <c r="C4">
-        <v>0.189988704540724</v>
+        <v>0.2076791829345837</v>
       </c>
       <c r="D4">
-        <v>0.05942398507765745</v>
+        <v>0.0590198989181232</v>
       </c>
       <c r="E4">
-        <v>1.015163776231915</v>
+        <v>1.025305198659382</v>
       </c>
       <c r="F4">
-        <v>0.4820491388854506</v>
+        <v>0.4348919584055508</v>
       </c>
       <c r="G4">
-        <v>0.0008143774276684999</v>
+        <v>0.007725091354606195</v>
       </c>
       <c r="H4">
-        <v>0.001582107092365392</v>
+        <v>0.002265336433922238</v>
       </c>
       <c r="I4">
-        <v>0.001364534143968754</v>
+        <v>0.0006280631716855112</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3194226648055292</v>
+        <v>0.2759042330322039</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1552516863583939</v>
       </c>
       <c r="M4">
-        <v>0.9363566651274198</v>
+        <v>0.06395367103497662</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9649671082112548</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.516170931226711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.337598852162529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.761184500988179</v>
+        <v>0.7613975830375921</v>
       </c>
       <c r="C5">
-        <v>0.1839000590730819</v>
+        <v>0.2001643826950925</v>
       </c>
       <c r="D5">
-        <v>0.05782517318084501</v>
+        <v>0.05713157003015112</v>
       </c>
       <c r="E5">
-        <v>0.9734457940725889</v>
+        <v>0.9836608187675608</v>
       </c>
       <c r="F5">
-        <v>0.4750175280343072</v>
+        <v>0.428543464181196</v>
       </c>
       <c r="G5">
-        <v>0.0008151513569442283</v>
+        <v>0.008360313231088323</v>
       </c>
       <c r="H5">
-        <v>0.001279535146250455</v>
+        <v>0.001920304386318072</v>
       </c>
       <c r="I5">
-        <v>0.001657831924983366</v>
+        <v>0.0007850130032185376</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3192957822614524</v>
+        <v>0.2760947045534046</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1562907715766713</v>
       </c>
       <c r="M5">
-        <v>0.8998547941069717</v>
+        <v>0.06371670639050642</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9274016600855646</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.503578902137477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.326545522339018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7553781910623343</v>
+        <v>0.7557853046527896</v>
       </c>
       <c r="C6">
-        <v>0.183471353753589</v>
+        <v>0.1995177455419253</v>
       </c>
       <c r="D6">
-        <v>0.05764531793125371</v>
+        <v>0.05690476917167331</v>
       </c>
       <c r="E6">
-        <v>0.9665066009608836</v>
+        <v>0.9767336126029846</v>
       </c>
       <c r="F6">
-        <v>0.473140284506357</v>
+        <v>0.426825907028558</v>
       </c>
       <c r="G6">
-        <v>0.0008152865277330243</v>
+        <v>0.008473927445915241</v>
       </c>
       <c r="H6">
-        <v>0.001231246819376253</v>
+        <v>0.001864502088894993</v>
       </c>
       <c r="I6">
-        <v>0.00180386448202885</v>
+        <v>0.0009208785576264589</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.318746580114059</v>
+        <v>0.2756574153330291</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1562236824694239</v>
       </c>
       <c r="M6">
-        <v>0.8942762598919103</v>
+        <v>0.0635706252277064</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9216340429576917</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.499157651260063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.322555592150678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.792132674241941</v>
+        <v>0.791790301478386</v>
       </c>
       <c r="C7">
-        <v>0.1914931375009274</v>
+        <v>0.2083217881375816</v>
       </c>
       <c r="D7">
-        <v>0.05963738970837085</v>
+        <v>0.05966923680872327</v>
       </c>
       <c r="E7">
-        <v>1.01456310042532</v>
+        <v>1.02463250839881</v>
       </c>
       <c r="F7">
-        <v>0.4799992727313054</v>
+        <v>0.4297364777348847</v>
       </c>
       <c r="G7">
-        <v>0.0008144031659392721</v>
+        <v>0.008052605403965796</v>
       </c>
       <c r="H7">
-        <v>0.001575430710702985</v>
+        <v>0.002252668900916799</v>
       </c>
       <c r="I7">
-        <v>0.001610792645557524</v>
+        <v>0.0009092324418151776</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.317972011471177</v>
+        <v>0.2730637884472884</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1538505071204774</v>
       </c>
       <c r="M7">
-        <v>0.9371862968179414</v>
+        <v>0.06321960220223843</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9649505616341401</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.509591578815417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.321062708043996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9548170569575234</v>
+        <v>0.9499138240102809</v>
       </c>
       <c r="C8">
-        <v>0.2257775598713323</v>
+        <v>0.2480633669099035</v>
       </c>
       <c r="D8">
-        <v>0.06819662385007064</v>
+        <v>0.07079890896297769</v>
       </c>
       <c r="E8">
-        <v>1.227023878068124</v>
+        <v>1.23636683829335</v>
       </c>
       <c r="F8">
-        <v>0.5130544439476807</v>
+        <v>0.4516511943076296</v>
       </c>
       <c r="G8">
-        <v>0.0008106228390355008</v>
+        <v>0.006707327415164777</v>
       </c>
       <c r="H8">
-        <v>0.003516268626411412</v>
+        <v>0.004331138510047072</v>
       </c>
       <c r="I8">
-        <v>0.000929147532200858</v>
+        <v>0.0008581341648614682</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3163713652978863</v>
+        <v>0.2664304840112486</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1461138688083814</v>
       </c>
       <c r="M8">
-        <v>1.125337766808428</v>
+        <v>0.06368637109081554</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.156575167566388</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.564392208579932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.343615427535852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.274130258119783</v>
+        <v>1.257434733098847</v>
       </c>
       <c r="C9">
-        <v>0.291880651930768</v>
+        <v>0.3288123975018493</v>
       </c>
       <c r="D9">
-        <v>0.08455774052652032</v>
+        <v>0.09072981237552113</v>
       </c>
       <c r="E9">
-        <v>1.646171165130042</v>
+        <v>1.653534939087734</v>
       </c>
       <c r="F9">
-        <v>0.585170498836284</v>
+        <v>0.5114438183048691</v>
       </c>
       <c r="G9">
-        <v>0.0008036465970255281</v>
+        <v>0.003380101950567926</v>
       </c>
       <c r="H9">
-        <v>0.009072679181350712</v>
+        <v>0.009917379699690879</v>
       </c>
       <c r="I9">
-        <v>0.0008936882576211502</v>
+        <v>0.0014925513036399</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3175209083370447</v>
+        <v>0.2619121251832723</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1354252186883933</v>
       </c>
       <c r="M9">
-        <v>1.492752970420099</v>
+        <v>0.07054175242202909</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.533602735552961</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.694067625304143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.440465080638631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.508060462922771</v>
+        <v>1.485359160137023</v>
       </c>
       <c r="C10">
-        <v>0.3407439323607093</v>
+        <v>0.3824917649908741</v>
       </c>
       <c r="D10">
-        <v>0.09811675719947033</v>
+        <v>0.1098246783105665</v>
       </c>
       <c r="E10">
-        <v>1.857331690921811</v>
+        <v>1.862020385630743</v>
       </c>
       <c r="F10">
-        <v>0.6300829321276638</v>
+        <v>0.5292865578001553</v>
       </c>
       <c r="G10">
-        <v>0.0007989361803906844</v>
+        <v>0.009624162957166504</v>
       </c>
       <c r="H10">
-        <v>0.01399857665609927</v>
+        <v>0.0146079983317966</v>
       </c>
       <c r="I10">
-        <v>0.002136926848352871</v>
+        <v>0.002850180640090905</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3139144366222872</v>
+        <v>0.2467604163610702</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1236804749200999</v>
       </c>
       <c r="M10">
-        <v>1.762555322003095</v>
+        <v>0.07295053950712926</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.804716342866925</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.762369029818728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.428594455701386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.618177720127818</v>
+        <v>1.602958377139942</v>
       </c>
       <c r="C11">
-        <v>0.3497038996877961</v>
+        <v>0.376510028138938</v>
       </c>
       <c r="D11">
-        <v>0.1175841796930257</v>
+        <v>0.1375646542943514</v>
       </c>
       <c r="E11">
-        <v>1.187442904410901</v>
+        <v>1.189955629682402</v>
       </c>
       <c r="F11">
-        <v>0.564273846353025</v>
+        <v>0.4375663902107689</v>
       </c>
       <c r="G11">
-        <v>0.0007979871787410013</v>
+        <v>0.04354114310489621</v>
       </c>
       <c r="H11">
-        <v>0.0302703163343061</v>
+        <v>0.03065354945556109</v>
       </c>
       <c r="I11">
-        <v>0.002991125964133978</v>
+        <v>0.003716847089846098</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2699652268818795</v>
+        <v>0.1991407342992808</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1050806287034352</v>
       </c>
       <c r="M11">
-        <v>1.870722182709869</v>
+        <v>0.0568601315419528</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.899591180039039</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.521402675783037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.121299668312005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.664114559189613</v>
+        <v>1.654911544058052</v>
       </c>
       <c r="C12">
-        <v>0.3444855613394964</v>
+        <v>0.3612483053481128</v>
       </c>
       <c r="D12">
-        <v>0.1318402106296475</v>
+        <v>0.156204857267582</v>
       </c>
       <c r="E12">
-        <v>0.7073331414512012</v>
+        <v>0.7090793961825881</v>
       </c>
       <c r="F12">
-        <v>0.5047346580544101</v>
+        <v>0.3748470092920257</v>
       </c>
       <c r="G12">
-        <v>0.0007979999220093913</v>
+        <v>0.06802828451625231</v>
       </c>
       <c r="H12">
-        <v>0.06703116758340144</v>
+        <v>0.06734782211496793</v>
       </c>
       <c r="I12">
-        <v>0.003015944197310105</v>
+        <v>0.003715247793948606</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2387727576757364</v>
+        <v>0.1731567482416594</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09608597961785659</v>
       </c>
       <c r="M12">
-        <v>1.902975006482365</v>
+        <v>0.04671753709487092</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.923226976932369</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.326585149296278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9303793500474029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.661122584699825</v>
+        <v>1.655644177767357</v>
       </c>
       <c r="C13">
-        <v>0.330658161820736</v>
+        <v>0.3427040484472741</v>
       </c>
       <c r="D13">
-        <v>0.1431023314591044</v>
+        <v>0.1667631800218032</v>
       </c>
       <c r="E13">
-        <v>0.3455995253262429</v>
+        <v>0.3471393561331411</v>
       </c>
       <c r="F13">
-        <v>0.4435037436954801</v>
+        <v>0.3309818894477132</v>
       </c>
       <c r="G13">
-        <v>0.0007987716492498537</v>
+        <v>0.06228667110052299</v>
       </c>
       <c r="H13">
-        <v>0.1209684804076261</v>
+        <v>0.1213129810414699</v>
       </c>
       <c r="I13">
-        <v>0.002736968541171336</v>
+        <v>0.003462229781394655</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2131691882101165</v>
+        <v>0.1595092506677176</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09195970584057456</v>
       </c>
       <c r="M13">
-        <v>1.880511685302281</v>
+        <v>0.04030231735062273</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.897338258592413</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.145715442692435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8112641181947566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.636531506846609</v>
+        <v>1.63262326060925</v>
       </c>
       <c r="C14">
-        <v>0.3176923181023312</v>
+        <v>0.3286070727189951</v>
       </c>
       <c r="D14">
-        <v>0.1497508227653981</v>
+        <v>0.1704030162390353</v>
       </c>
       <c r="E14">
-        <v>0.1641469227948491</v>
+        <v>0.1656013294431418</v>
       </c>
       <c r="F14">
-        <v>0.4000794503405132</v>
+        <v>0.3069727281131662</v>
       </c>
       <c r="G14">
-        <v>0.0007996426155144102</v>
+        <v>0.04571780580208795</v>
       </c>
       <c r="H14">
-        <v>0.1691673424852524</v>
+        <v>0.1695590300401619</v>
       </c>
       <c r="I14">
-        <v>0.002506908655178997</v>
+        <v>0.003275101674002912</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1979383982649132</v>
+        <v>0.1542345738296316</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09061026754219448</v>
       </c>
       <c r="M14">
-        <v>1.840563137241134</v>
+        <v>0.03719446025707818</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.857183814220576</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.026584189202865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7532333745268716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.619536339798969</v>
+        <v>1.615608633594746</v>
       </c>
       <c r="C15">
-        <v>0.3133275261219524</v>
+        <v>0.3248342473128503</v>
       </c>
       <c r="D15">
-        <v>0.1506936660094453</v>
+        <v>0.1695529346869478</v>
       </c>
       <c r="E15">
-        <v>0.1289053913315676</v>
+        <v>0.1303799840004842</v>
       </c>
       <c r="F15">
-        <v>0.3883183713245302</v>
+        <v>0.3031295115873576</v>
       </c>
       <c r="G15">
-        <v>0.0008000412494754694</v>
+        <v>0.0373268297056093</v>
       </c>
       <c r="H15">
-        <v>0.1812970552636415</v>
+        <v>0.1817124010055977</v>
       </c>
       <c r="I15">
-        <v>0.002501210222269457</v>
+        <v>0.003305177856957719</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1947290373535413</v>
+        <v>0.154269771835537</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09076451077528436</v>
       </c>
       <c r="M15">
-        <v>1.819728188308943</v>
+        <v>0.03680678009713745</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.837233984233336</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9973460688047737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7468850749022522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.51835236443938</v>
+        <v>1.511393793086313</v>
       </c>
       <c r="C16">
-        <v>0.2964158460802508</v>
+        <v>0.3148641598229176</v>
       </c>
       <c r="D16">
-        <v>0.1422433876048785</v>
+        <v>0.1526617216123043</v>
       </c>
       <c r="E16">
-        <v>0.1259029726930656</v>
+        <v>0.1279365590439916</v>
       </c>
       <c r="F16">
-        <v>0.38099558770557</v>
+        <v>0.3233034443919465</v>
       </c>
       <c r="G16">
-        <v>0.0008018825410003679</v>
+        <v>0.009327233858142492</v>
       </c>
       <c r="H16">
-        <v>0.1671485859209696</v>
+        <v>0.167665837708455</v>
       </c>
       <c r="I16">
-        <v>0.002120720841981338</v>
+        <v>0.002964945900869154</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2005797896834558</v>
+        <v>0.1677163014733338</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09603057002765336</v>
       </c>
       <c r="M16">
-        <v>1.709132370356883</v>
+        <v>0.04041055910937885</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.734390106569663</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.002627686738279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8236970258213319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.453936288059083</v>
+        <v>1.444745905090656</v>
       </c>
       <c r="C17">
-        <v>0.2903566480965907</v>
+        <v>0.3134879164705922</v>
       </c>
       <c r="D17">
-        <v>0.1322501961925298</v>
+        <v>0.1392355453953087</v>
       </c>
       <c r="E17">
-        <v>0.2064456924144409</v>
+        <v>0.2091432955821517</v>
       </c>
       <c r="F17">
-        <v>0.3981085223284779</v>
+        <v>0.3494966128761376</v>
       </c>
       <c r="G17">
-        <v>0.0008028489936447554</v>
+        <v>0.003495689538783431</v>
       </c>
       <c r="H17">
-        <v>0.1288322112344815</v>
+        <v>0.1293983255543054</v>
       </c>
       <c r="I17">
-        <v>0.001988662209578607</v>
+        <v>0.002828836461930884</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2129115560757899</v>
+        <v>0.181150783234429</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1014060435151842</v>
       </c>
       <c r="M17">
-        <v>1.645702627538441</v>
+        <v>0.04453535476481996</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.675685395545969</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.068547807419236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9109101697283251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.414872805599572</v>
+        <v>1.40265899983379</v>
       </c>
       <c r="C18">
-        <v>0.2916892638930904</v>
+        <v>0.3200837469603641</v>
       </c>
       <c r="D18">
-        <v>0.1199598359290519</v>
+        <v>0.1258167595801609</v>
       </c>
       <c r="E18">
-        <v>0.4303738049773003</v>
+        <v>0.4340583289689803</v>
       </c>
       <c r="F18">
-        <v>0.4408460749890111</v>
+        <v>0.3915171627292153</v>
       </c>
       <c r="G18">
-        <v>0.0008030812235598092</v>
+        <v>0.00212733827149636</v>
       </c>
       <c r="H18">
-        <v>0.07642135504890035</v>
+        <v>0.07703724258369249</v>
       </c>
       <c r="I18">
-        <v>0.001728884432167455</v>
+        <v>0.002521429652952989</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2344784345861797</v>
+        <v>0.1994764054833063</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1085935712515784</v>
       </c>
       <c r="M18">
-        <v>1.61436611561993</v>
+        <v>0.05089736475273376</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.648894041925445</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.204840795287538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.040496297017967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397017994313615</v>
+        <v>1.380980757951903</v>
       </c>
       <c r="C19">
-        <v>0.3021797770136629</v>
+        <v>0.3369272146042874</v>
       </c>
       <c r="D19">
-        <v>0.1078836979934437</v>
+        <v>0.1138049710877169</v>
       </c>
       <c r="E19">
-        <v>0.8497485099909738</v>
+        <v>0.8546316058429824</v>
       </c>
       <c r="F19">
-        <v>0.5006060323212012</v>
+        <v>0.44457817919956</v>
       </c>
       <c r="G19">
-        <v>0.0008026174073395198</v>
+        <v>0.001694767416927867</v>
       </c>
       <c r="H19">
-        <v>0.03285310476226044</v>
+        <v>0.03353851911671768</v>
       </c>
       <c r="I19">
-        <v>0.001907992714284212</v>
+        <v>0.00274128863534262</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2624390341673895</v>
+        <v>0.2212149617900785</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1169088590973377</v>
       </c>
       <c r="M19">
-        <v>1.613941171901473</v>
+        <v>0.05897791191414647</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.653173818722763</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.390316417976919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.201418997403323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.443111133909838</v>
+        <v>1.420493183051008</v>
       </c>
       <c r="C20">
-        <v>0.3328704237489433</v>
+        <v>0.376964418716625</v>
       </c>
       <c r="D20">
-        <v>0.09538013175662741</v>
+        <v>0.1039081289684205</v>
       </c>
       <c r="E20">
-        <v>1.797490717570028</v>
+        <v>1.80322639232125</v>
       </c>
       <c r="F20">
-        <v>0.6116478311892521</v>
+        <v>0.5299915380192246</v>
       </c>
       <c r="G20">
-        <v>0.0008002001151388214</v>
+        <v>0.003107525370903197</v>
       </c>
       <c r="H20">
-        <v>0.01256328085301117</v>
+        <v>0.01328770362776677</v>
       </c>
       <c r="I20">
-        <v>0.002461270826751516</v>
+        <v>0.003346370297261814</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3102080488237213</v>
+        <v>0.2519770807960775</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1270990876164113</v>
       </c>
       <c r="M20">
-        <v>1.695789459640338</v>
+        <v>0.07275248741401441</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.740520438899892</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.722966767559683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.448628417866587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.62228014470935</v>
+        <v>1.603274369571039</v>
       </c>
       <c r="C21">
-        <v>0.3727396676035255</v>
+        <v>0.4039600067909532</v>
       </c>
       <c r="D21">
-        <v>0.1035078519714219</v>
+        <v>0.1259746099618582</v>
       </c>
       <c r="E21">
-        <v>2.114333939844428</v>
+        <v>2.116374085359482</v>
       </c>
       <c r="F21">
-        <v>0.6637941882298861</v>
+        <v>0.500455403913115</v>
       </c>
       <c r="G21">
-        <v>0.0007964352199715023</v>
+        <v>0.06447529853134881</v>
       </c>
       <c r="H21">
-        <v>0.01752391039487544</v>
+        <v>0.01779849230519392</v>
       </c>
       <c r="I21">
-        <v>0.003737141056237903</v>
+        <v>0.004406005062926432</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3165060202773553</v>
+        <v>0.2221899086085521</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1125767207610515</v>
       </c>
       <c r="M21">
-        <v>1.905552146147471</v>
+        <v>0.06720527385892439</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.93625128807949</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.831632630708725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.304861403360775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.741179182686636</v>
+        <v>1.72572258256011</v>
       </c>
       <c r="C22">
-        <v>0.3960366455717406</v>
+        <v>0.4169857569144995</v>
       </c>
       <c r="D22">
-        <v>0.1092186921596792</v>
+        <v>0.1422325606451693</v>
       </c>
       <c r="E22">
-        <v>2.27178878882826</v>
+        <v>2.27119604491844</v>
       </c>
       <c r="F22">
-        <v>0.6960336365522579</v>
+        <v>0.4764151902683267</v>
       </c>
       <c r="G22">
-        <v>0.0007940762317599266</v>
+        <v>0.1536492651677008</v>
       </c>
       <c r="H22">
-        <v>0.0208526311509476</v>
+        <v>0.02076981086742413</v>
       </c>
       <c r="I22">
-        <v>0.004536533108778329</v>
+        <v>0.004882346905470847</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3202021780750606</v>
+        <v>0.2021869207227276</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1037892729075747</v>
       </c>
       <c r="M22">
-        <v>2.040303942776234</v>
+        <v>0.06291023325020717</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.060104354738428</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.896609587680359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.199334117108236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.679084321090187</v>
+        <v>1.660289065601575</v>
       </c>
       <c r="C23">
-        <v>0.3816117296432822</v>
+        <v>0.4104541894648435</v>
       </c>
       <c r="D23">
-        <v>0.1058759634096802</v>
+        <v>0.1317364073806147</v>
       </c>
       <c r="E23">
-        <v>2.187721262284626</v>
+        <v>2.188702866235332</v>
       </c>
       <c r="F23">
-        <v>0.6810470920683684</v>
+        <v>0.4986945054700556</v>
       </c>
       <c r="G23">
-        <v>0.0007953176361572173</v>
+        <v>0.08773521418863339</v>
       </c>
       <c r="H23">
-        <v>0.01905361408066253</v>
+        <v>0.01918816178455574</v>
       </c>
       <c r="I23">
-        <v>0.003804624836293513</v>
+        <v>0.004287509364516495</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3198533091306039</v>
+        <v>0.2170161061260387</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1097223141888755</v>
       </c>
       <c r="M23">
-        <v>1.966725382140453</v>
+        <v>0.06705450607902463</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.994578458055969</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.869170731204832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.284234807763482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.441784148571259</v>
+        <v>1.418642371392281</v>
       </c>
       <c r="C24">
-        <v>0.3307231673377657</v>
+        <v>0.3754393883064608</v>
       </c>
       <c r="D24">
-        <v>0.09370490580222679</v>
+        <v>0.1021016524683205</v>
       </c>
       <c r="E24">
-        <v>1.871005806957683</v>
+        <v>1.876856085817224</v>
       </c>
       <c r="F24">
-        <v>0.6221450206985892</v>
+        <v>0.5397182788722006</v>
       </c>
       <c r="G24">
-        <v>0.0008001273908888276</v>
+        <v>0.002905505250225815</v>
       </c>
       <c r="H24">
-        <v>0.01285793960428128</v>
+        <v>0.0135910998240133</v>
       </c>
       <c r="I24">
-        <v>0.002008781424364336</v>
+        <v>0.002800295747960035</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3165549346841345</v>
+        <v>0.2571877130706106</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1290733787339438</v>
       </c>
       <c r="M24">
-        <v>1.691458912150921</v>
+        <v>0.0747013914055934</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.736792194907849</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.757664859936597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.480010075038166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.185839834959921</v>
+        <v>1.171878443741406</v>
       </c>
       <c r="C25">
-        <v>0.2767231520707867</v>
+        <v>0.3110753474397541</v>
       </c>
       <c r="D25">
-        <v>0.08056699679877966</v>
+        <v>0.08511340993895544</v>
       </c>
       <c r="E25">
-        <v>1.532326328644899</v>
+        <v>1.540455102391078</v>
       </c>
       <c r="F25">
-        <v>0.5616842106557627</v>
+        <v>0.4963997017189783</v>
       </c>
       <c r="G25">
-        <v>0.0008055096537468591</v>
+        <v>0.00306053064238121</v>
       </c>
       <c r="H25">
-        <v>0.007351424195247536</v>
+        <v>0.0082326135854906</v>
       </c>
       <c r="I25">
-        <v>0.001115306181202591</v>
+        <v>0.001672354960715161</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3144379772225037</v>
+        <v>0.2630021763553749</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1382202524874785</v>
       </c>
       <c r="M25">
-        <v>1.39564240428524</v>
+        <v>0.06825326773941498</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.435039883036751</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.646218499307906</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.418022920712502</v>
       </c>
     </row>
   </sheetData>
